--- a/Market Data.xlsx
+++ b/Market Data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10309"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11102"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ptp/Documents/Pushkar/Python/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ptp/Documents/Pushkar/Python/Derivatives Pricing/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6D91D75-FA10-B64B-9659-1D45CD6B37C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{636EE357-2BFD-C040-8D01-C4B2C0BCAF6E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="26080" yWindow="2220" windowWidth="25120" windowHeight="21400" activeTab="1" xr2:uid="{77BC7AFC-A077-CB42-B4DA-3EC3BF4E2F1A}"/>
+    <workbookView xWindow="1800" yWindow="1900" windowWidth="25120" windowHeight="21400" activeTab="6" xr2:uid="{77BC7AFC-A077-CB42-B4DA-3EC3BF4E2F1A}"/>
   </bookViews>
   <sheets>
     <sheet name="Brent" sheetId="1" r:id="rId1"/>
@@ -19,8 +19,9 @@
     <sheet name="SOFRFix" sheetId="7" r:id="rId4"/>
     <sheet name="USDIRSShort" sheetId="8" r:id="rId5"/>
     <sheet name="INRFX" sheetId="3" r:id="rId6"/>
-    <sheet name="INROIS" sheetId="4" r:id="rId7"/>
-    <sheet name="INRMIF" sheetId="5" r:id="rId8"/>
+    <sheet name="FXO" sheetId="10" r:id="rId7"/>
+    <sheet name="INROIS" sheetId="4" r:id="rId8"/>
+    <sheet name="INRMIF" sheetId="5" r:id="rId9"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -40,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="830" uniqueCount="446">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1027" uniqueCount="525">
   <si>
     <t>Date</t>
   </si>
@@ -1378,6 +1379,243 @@
   </si>
   <si>
     <t>Rate %</t>
+  </si>
+  <si>
+    <t>ATM</t>
+  </si>
+  <si>
+    <t>25D RR</t>
+  </si>
+  <si>
+    <t>25D FLY</t>
+  </si>
+  <si>
+    <t>10D RR</t>
+  </si>
+  <si>
+    <t>10D FLY</t>
+  </si>
+  <si>
+    <t>y</t>
+  </si>
+  <si>
+    <t>RiC</t>
+  </si>
+  <si>
+    <t>Bid</t>
+  </si>
+  <si>
+    <t>Ask</t>
+  </si>
+  <si>
+    <t>EURUSD</t>
+  </si>
+  <si>
+    <t>d</t>
+  </si>
+  <si>
+    <t>GBPUSD</t>
+  </si>
+  <si>
+    <t>JPY</t>
+  </si>
+  <si>
+    <t>EURUSD SN FWD</t>
+  </si>
+  <si>
+    <t>GBPUSD SN FWD</t>
+  </si>
+  <si>
+    <t>USDJPY SN FWD</t>
+  </si>
+  <si>
+    <t>EURUSD SW FWD</t>
+  </si>
+  <si>
+    <t>GBPUSD SW FWD</t>
+  </si>
+  <si>
+    <t>USDJPY SW FWD</t>
+  </si>
+  <si>
+    <t>EURUSD 2W FWD</t>
+  </si>
+  <si>
+    <t>GBPUSD 2W FWD</t>
+  </si>
+  <si>
+    <t>USDJPY 2W FWD</t>
+  </si>
+  <si>
+    <t>EURUSD 3W FWD</t>
+  </si>
+  <si>
+    <t>GBPUSD 3W FWD</t>
+  </si>
+  <si>
+    <t>USDJPY 3W FWD</t>
+  </si>
+  <si>
+    <t>EURUSD 1M FWD</t>
+  </si>
+  <si>
+    <t>GBPUSD 1M FWD</t>
+  </si>
+  <si>
+    <t>USDJPY 1M FWD</t>
+  </si>
+  <si>
+    <t>EURUSD 2M FWD</t>
+  </si>
+  <si>
+    <t>GBPUSD 2M FWD</t>
+  </si>
+  <si>
+    <t>USDJPY 2M FWD</t>
+  </si>
+  <si>
+    <t>EURUSD 3M FWD</t>
+  </si>
+  <si>
+    <t>GBPUSD 3M FWD</t>
+  </si>
+  <si>
+    <t>USDJPY 3M FWD</t>
+  </si>
+  <si>
+    <t>EURUSD 4M FWD</t>
+  </si>
+  <si>
+    <t>GBPUSD 4M FWD</t>
+  </si>
+  <si>
+    <t>USDJPY 4M FWD</t>
+  </si>
+  <si>
+    <t>EURUSD 5M FWD</t>
+  </si>
+  <si>
+    <t>GBPUSD 5M FWD</t>
+  </si>
+  <si>
+    <t>USDJPY 5M FWD</t>
+  </si>
+  <si>
+    <t>EURUSD 6M FWD</t>
+  </si>
+  <si>
+    <t>GBPUSD 6M FWD</t>
+  </si>
+  <si>
+    <t>USDJPY 6M FWD</t>
+  </si>
+  <si>
+    <t>EURUSD 7M FWD</t>
+  </si>
+  <si>
+    <t>GBPUSD 7M FWD</t>
+  </si>
+  <si>
+    <t>USDJPY 7M FWD</t>
+  </si>
+  <si>
+    <t>EURUSD 8M FWD</t>
+  </si>
+  <si>
+    <t>GBPUSD 8M FWD</t>
+  </si>
+  <si>
+    <t>USDJPY 8M FWD</t>
+  </si>
+  <si>
+    <t>EURUSD 9M FWD</t>
+  </si>
+  <si>
+    <t>GBPUSD 9M FWD</t>
+  </si>
+  <si>
+    <t>USDJPY 9M FWD</t>
+  </si>
+  <si>
+    <t>EURUSD 10M FWD</t>
+  </si>
+  <si>
+    <t>GBPUSD 10M FWD</t>
+  </si>
+  <si>
+    <t>USDJPY 10M FWD</t>
+  </si>
+  <si>
+    <t>EURUSD 11M FWD</t>
+  </si>
+  <si>
+    <t>GBPUSD 11M FWD</t>
+  </si>
+  <si>
+    <t>USDJPY 11M FWD</t>
+  </si>
+  <si>
+    <t>EURUSD 1Y FWD</t>
+  </si>
+  <si>
+    <t>GBPUSD 1Y FWD</t>
+  </si>
+  <si>
+    <t>USDJPY 1Y FWD</t>
+  </si>
+  <si>
+    <t>EURUSD 15M FWD</t>
+  </si>
+  <si>
+    <t>GBPUSD 15M FWD</t>
+  </si>
+  <si>
+    <t>USDJPY 15M FWD</t>
+  </si>
+  <si>
+    <t>EURUSD 21M FWD</t>
+  </si>
+  <si>
+    <t>GBPUSD 21M FWD</t>
+  </si>
+  <si>
+    <t>USDJPY 21M FWD</t>
+  </si>
+  <si>
+    <t>EURUSD 2Y FWD</t>
+  </si>
+  <si>
+    <t>GBPUSD 2Y FWD</t>
+  </si>
+  <si>
+    <t>USDJPY 2Y FWD</t>
+  </si>
+  <si>
+    <t>EURUSD 3Y FWD</t>
+  </si>
+  <si>
+    <t>GBPUSD 3Y FWD</t>
+  </si>
+  <si>
+    <t>USDJPY 3Y FWD</t>
+  </si>
+  <si>
+    <t>EURUSD 4Y FWD</t>
+  </si>
+  <si>
+    <t>GBPUSD 4Y FWD</t>
+  </si>
+  <si>
+    <t>USDJPY 4Y FWD</t>
+  </si>
+  <si>
+    <t>EURUSD 5Y FWD</t>
+  </si>
+  <si>
+    <t>GBPUSD 5Y FWD</t>
+  </si>
+  <si>
+    <t>USDJPY 5Y FWD</t>
   </si>
 </sst>
 </file>
@@ -1387,7 +1625,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.00000%"/>
   </numFmts>
-  <fonts count="19" x14ac:knownFonts="1">
+  <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1528,6 +1766,12 @@
       <color theme="1"/>
       <name val="Aptos Narrow"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Helvetica Neue"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="34">
@@ -1901,7 +2145,7 @@
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
@@ -1918,6 +2162,9 @@
     <xf numFmtId="4" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="42" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3189,7 +3436,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{11A369F7-9855-674A-B8C2-00B5568AEA61}">
   <dimension ref="A1:P16"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="177" zoomScaleNormal="177" workbookViewId="0">
+    <sheetView zoomScale="177" zoomScaleNormal="177" workbookViewId="0">
       <selection activeCell="B3" sqref="B3:B12"/>
     </sheetView>
   </sheetViews>
@@ -3200,22 +3447,22 @@
       <c r="B1" s="3"/>
       <c r="C1" s="5"/>
       <c r="D1" s="3"/>
-      <c r="E1" s="16" t="s">
+      <c r="E1" s="19" t="s">
         <v>84</v>
       </c>
-      <c r="F1" s="16"/>
-      <c r="G1" s="16" t="s">
+      <c r="F1" s="19"/>
+      <c r="G1" s="19" t="s">
         <v>85</v>
       </c>
-      <c r="H1" s="16"/>
+      <c r="H1" s="19"/>
       <c r="J1" s="6"/>
-      <c r="L1" s="17" t="s">
+      <c r="L1" s="20" t="s">
         <v>90</v>
       </c>
-      <c r="M1" s="17"/>
-      <c r="N1" s="17"/>
-      <c r="O1" s="17"/>
-      <c r="P1" s="17"/>
+      <c r="M1" s="20"/>
+      <c r="N1" s="20"/>
+      <c r="O1" s="20"/>
+      <c r="P1" s="20"/>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
@@ -14241,14 +14488,14 @@
       <c r="C1" s="3"/>
       <c r="D1" s="5"/>
       <c r="E1" s="3"/>
-      <c r="F1" s="16" t="s">
+      <c r="F1" s="19" t="s">
         <v>84</v>
       </c>
-      <c r="G1" s="16"/>
-      <c r="H1" s="16" t="s">
+      <c r="G1" s="19"/>
+      <c r="H1" s="19" t="s">
         <v>85</v>
       </c>
-      <c r="I1" s="16"/>
+      <c r="I1" s="19"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
@@ -14798,6 +15045,1813 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD607EAD-EB52-7C43-AE3A-8CB31438688B}">
+  <dimension ref="B2:R54"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="K21" sqref="K21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="2" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B2" t="s">
+        <v>440</v>
+      </c>
+      <c r="C2" t="s">
+        <v>441</v>
+      </c>
+      <c r="D2" t="s">
+        <v>446</v>
+      </c>
+      <c r="E2" t="s">
+        <v>447</v>
+      </c>
+      <c r="F2" t="s">
+        <v>448</v>
+      </c>
+      <c r="G2" t="s">
+        <v>449</v>
+      </c>
+      <c r="H2" t="s">
+        <v>450</v>
+      </c>
+      <c r="K2" s="3" t="s">
+        <v>440</v>
+      </c>
+      <c r="L2" s="3" t="s">
+        <v>441</v>
+      </c>
+      <c r="M2" s="3" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="3" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3" t="s">
+        <v>442</v>
+      </c>
+      <c r="D3" s="18">
+        <v>6.3500000000000001E-2</v>
+      </c>
+      <c r="E3" s="18">
+        <v>4.6999999999999993E-3</v>
+      </c>
+      <c r="F3" s="18">
+        <v>1.1999999999999999E-3</v>
+      </c>
+      <c r="G3" s="18">
+        <v>7.6249999999999998E-3</v>
+      </c>
+      <c r="H3" s="18">
+        <v>3.7499999999999999E-3</v>
+      </c>
+      <c r="J3" s="17"/>
+      <c r="K3" s="2">
+        <v>1</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>442</v>
+      </c>
+      <c r="M3" s="7">
+        <v>4.3083499999999997E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B4">
+        <v>2</v>
+      </c>
+      <c r="C4" t="s">
+        <v>442</v>
+      </c>
+      <c r="D4" s="18">
+        <v>6.1925000000000008E-2</v>
+      </c>
+      <c r="E4" s="18">
+        <v>5.0499999999999998E-3</v>
+      </c>
+      <c r="F4" s="18">
+        <v>1.1999999999999999E-3</v>
+      </c>
+      <c r="G4" s="18">
+        <v>7.4249999999999993E-3</v>
+      </c>
+      <c r="H4" s="18">
+        <v>3.8E-3</v>
+      </c>
+      <c r="K4" s="2">
+        <v>2</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>442</v>
+      </c>
+      <c r="M4" s="7">
+        <v>4.3149199999999999E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B5">
+        <v>3</v>
+      </c>
+      <c r="C5" t="s">
+        <v>442</v>
+      </c>
+      <c r="D5" s="18">
+        <v>5.9975000000000007E-2</v>
+      </c>
+      <c r="E5" s="18">
+        <v>6.9750000000000003E-3</v>
+      </c>
+      <c r="F5" s="18">
+        <v>1.25E-3</v>
+      </c>
+      <c r="G5" s="18">
+        <v>9.1750000000000009E-3</v>
+      </c>
+      <c r="H5" s="18">
+        <v>3.8250000000000003E-3</v>
+      </c>
+      <c r="K5" s="2">
+        <v>3</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>442</v>
+      </c>
+      <c r="M5" s="7">
+        <v>4.3179000000000002E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="C6" t="s">
+        <v>443</v>
+      </c>
+      <c r="D6" s="18">
+        <v>6.1349999999999995E-2</v>
+      </c>
+      <c r="E6" s="18">
+        <v>6.1500000000000001E-3</v>
+      </c>
+      <c r="F6" s="18">
+        <v>1.5249999999999999E-3</v>
+      </c>
+      <c r="G6" s="18">
+        <v>8.2749999999999994E-3</v>
+      </c>
+      <c r="H6" s="18">
+        <v>4.5750000000000001E-3</v>
+      </c>
+      <c r="K6" s="2">
+        <v>1</v>
+      </c>
+      <c r="L6" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="M6" s="7">
+        <v>4.3230499999999998E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B7">
+        <v>2</v>
+      </c>
+      <c r="C7" t="s">
+        <v>443</v>
+      </c>
+      <c r="D7" s="18">
+        <v>6.1225000000000002E-2</v>
+      </c>
+      <c r="E7" s="18">
+        <v>6.6E-3</v>
+      </c>
+      <c r="F7" s="18">
+        <v>1.7750000000000001E-3</v>
+      </c>
+      <c r="G7" s="18">
+        <v>9.0999999999999987E-3</v>
+      </c>
+      <c r="H7" s="18">
+        <v>5.3E-3</v>
+      </c>
+      <c r="K7" s="2">
+        <v>2</v>
+      </c>
+      <c r="L7" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="M7" s="7">
+        <v>4.3283799999999997E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B8">
+        <v>3</v>
+      </c>
+      <c r="C8" t="s">
+        <v>443</v>
+      </c>
+      <c r="D8" s="18">
+        <v>6.1150000000000003E-2</v>
+      </c>
+      <c r="E8" s="18">
+        <v>6.7000000000000002E-3</v>
+      </c>
+      <c r="F8" s="18">
+        <v>2.2500000000000003E-3</v>
+      </c>
+      <c r="G8" s="18">
+        <v>1.0075000000000001E-2</v>
+      </c>
+      <c r="H8" s="18">
+        <v>6.9500000000000004E-3</v>
+      </c>
+      <c r="K8" s="2">
+        <v>3</v>
+      </c>
+      <c r="L8" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="M8" s="7">
+        <v>4.32185E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B9">
+        <v>4</v>
+      </c>
+      <c r="C9" t="s">
+        <v>443</v>
+      </c>
+      <c r="D9" s="18">
+        <v>6.0525000000000002E-2</v>
+      </c>
+      <c r="E9" s="18">
+        <v>7.0499999999999998E-3</v>
+      </c>
+      <c r="F9" s="18">
+        <v>2.3499999999999997E-3</v>
+      </c>
+      <c r="G9" s="18">
+        <v>1.0449999999999999E-2</v>
+      </c>
+      <c r="H9" s="18">
+        <v>7.1249999999999994E-3</v>
+      </c>
+      <c r="K9" s="2">
+        <v>4</v>
+      </c>
+      <c r="L9" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="M9" s="7">
+        <v>4.3148800000000001E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B10">
+        <v>6</v>
+      </c>
+      <c r="C10" t="s">
+        <v>443</v>
+      </c>
+      <c r="D10" s="18">
+        <v>0.06</v>
+      </c>
+      <c r="E10" s="18">
+        <v>7.8500000000000011E-3</v>
+      </c>
+      <c r="F10" s="18">
+        <v>2.5999999999999999E-3</v>
+      </c>
+      <c r="G10" s="18">
+        <v>1.1524999999999999E-2</v>
+      </c>
+      <c r="H10" s="18">
+        <v>7.8500000000000011E-3</v>
+      </c>
+      <c r="K10" s="2">
+        <v>5</v>
+      </c>
+      <c r="L10" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="M10" s="7">
+        <v>4.2944000000000003E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B11">
+        <v>9</v>
+      </c>
+      <c r="C11" t="s">
+        <v>443</v>
+      </c>
+      <c r="D11" s="18">
+        <v>6.0924999999999993E-2</v>
+      </c>
+      <c r="E11" s="18">
+        <v>7.575000000000001E-3</v>
+      </c>
+      <c r="F11" s="18">
+        <v>2.6749999999999994E-3</v>
+      </c>
+      <c r="G11" s="18">
+        <v>1.1825E-2</v>
+      </c>
+      <c r="H11" s="18">
+        <v>8.3999999999999995E-3</v>
+      </c>
+      <c r="K11" s="2">
+        <v>6</v>
+      </c>
+      <c r="L11" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="M11" s="7">
+        <v>4.2667999999999998E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B12">
+        <v>12</v>
+      </c>
+      <c r="C12" t="s">
+        <v>443</v>
+      </c>
+      <c r="D12" s="18">
+        <v>6.1400000000000003E-2</v>
+      </c>
+      <c r="E12" s="18">
+        <v>8.1499999999999993E-3</v>
+      </c>
+      <c r="F12" s="18">
+        <v>3.15E-3</v>
+      </c>
+      <c r="G12" s="18">
+        <v>1.2924999999999999E-2</v>
+      </c>
+      <c r="H12" s="18">
+        <v>9.7000000000000003E-3</v>
+      </c>
+      <c r="K12" s="2">
+        <v>7</v>
+      </c>
+      <c r="L12" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="M12" s="7">
+        <v>4.2358300000000002E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B13">
+        <v>18</v>
+      </c>
+      <c r="C13" t="s">
+        <v>443</v>
+      </c>
+      <c r="D13" s="18">
+        <v>6.0999999999999999E-2</v>
+      </c>
+      <c r="E13" s="18">
+        <v>7.8499999999999993E-3</v>
+      </c>
+      <c r="F13" s="18">
+        <v>2.8000000000000004E-3</v>
+      </c>
+      <c r="G13" s="18">
+        <v>1.1899999999999999E-2</v>
+      </c>
+      <c r="H13" s="18">
+        <v>8.7500000000000008E-3</v>
+      </c>
+      <c r="K13" s="2">
+        <v>8</v>
+      </c>
+      <c r="L13" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="M13" s="7">
+        <v>4.2030199999999997E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B14">
+        <v>2</v>
+      </c>
+      <c r="C14" t="s">
+        <v>451</v>
+      </c>
+      <c r="D14" s="18">
+        <v>6.0824999999999997E-2</v>
+      </c>
+      <c r="E14" s="18">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="F14" s="18">
+        <v>2.7000000000000001E-3</v>
+      </c>
+      <c r="G14" s="18">
+        <v>1.2000000000000002E-2</v>
+      </c>
+      <c r="H14" s="18">
+        <v>8.6499999999999997E-3</v>
+      </c>
+      <c r="K14" s="2">
+        <v>9</v>
+      </c>
+      <c r="L14" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="M14" s="7">
+        <v>4.1661999999999998E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B15">
+        <v>3</v>
+      </c>
+      <c r="C15" t="s">
+        <v>451</v>
+      </c>
+      <c r="D15" s="18">
+        <v>5.3699999999999991E-2</v>
+      </c>
+      <c r="E15" s="18">
+        <v>6.9999999999999993E-3</v>
+      </c>
+      <c r="F15" s="18">
+        <v>2.7000000000000001E-3</v>
+      </c>
+      <c r="G15" s="18">
+        <v>1.1299999999999999E-2</v>
+      </c>
+      <c r="H15" s="18">
+        <v>8.5999999999999983E-3</v>
+      </c>
+      <c r="K15" s="2">
+        <v>10</v>
+      </c>
+      <c r="L15" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="M15" s="7">
+        <v>4.13701E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B16">
+        <v>4</v>
+      </c>
+      <c r="C16" t="s">
+        <v>451</v>
+      </c>
+      <c r="D16" s="18">
+        <v>4.9924999999999997E-2</v>
+      </c>
+      <c r="E16" s="18">
+        <v>4.4250000000000001E-3</v>
+      </c>
+      <c r="F16" s="18">
+        <v>2.6749999999999994E-3</v>
+      </c>
+      <c r="G16" s="18">
+        <v>9.025E-3</v>
+      </c>
+      <c r="H16" s="18">
+        <v>8.5000000000000006E-3</v>
+      </c>
+      <c r="K16" s="2">
+        <v>11</v>
+      </c>
+      <c r="L16" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="M16" s="7">
+        <v>4.1052900000000003E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B17">
+        <v>5</v>
+      </c>
+      <c r="C17" t="s">
+        <v>451</v>
+      </c>
+      <c r="D17" s="18">
+        <v>4.7249999999999993E-2</v>
+      </c>
+      <c r="E17" s="18">
+        <v>2.5000000000000001E-3</v>
+      </c>
+      <c r="F17" s="18">
+        <v>2.7000000000000001E-3</v>
+      </c>
+      <c r="G17" s="18">
+        <v>7.3250000000000008E-3</v>
+      </c>
+      <c r="H17" s="18">
+        <v>8.6250000000000007E-3</v>
+      </c>
+      <c r="K17" s="2">
+        <v>12</v>
+      </c>
+      <c r="L17" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="M17" s="7">
+        <v>4.0749800000000003E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="K18" s="2">
+        <v>2</v>
+      </c>
+      <c r="L18" s="2" t="s">
+        <v>451</v>
+      </c>
+      <c r="M18" s="7">
+        <v>3.7767000000000002E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="K19" s="2">
+        <v>3</v>
+      </c>
+      <c r="L19" s="2" t="s">
+        <v>451</v>
+      </c>
+      <c r="M19" s="7">
+        <v>3.7051000000000001E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="K20" s="2">
+        <v>4</v>
+      </c>
+      <c r="L20" s="2" t="s">
+        <v>451</v>
+      </c>
+      <c r="M20" s="7">
+        <v>3.7069999999999999E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="D21" s="16"/>
+      <c r="E21" s="16"/>
+      <c r="F21" s="16"/>
+      <c r="G21" s="16"/>
+      <c r="H21" s="16"/>
+      <c r="I21" s="16"/>
+      <c r="J21" s="16"/>
+      <c r="K21" s="2">
+        <v>5</v>
+      </c>
+      <c r="L21" s="2" t="s">
+        <v>451</v>
+      </c>
+      <c r="M21" s="7">
+        <v>3.7380499999999997E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="D22" s="16"/>
+      <c r="E22" s="16"/>
+      <c r="F22" s="16"/>
+      <c r="G22" s="16"/>
+      <c r="H22" s="16"/>
+      <c r="I22" s="16"/>
+      <c r="J22" s="16"/>
+      <c r="K22" s="16"/>
+      <c r="L22" s="16"/>
+      <c r="M22" s="16"/>
+    </row>
+    <row r="23" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="E23" s="16"/>
+      <c r="F23" s="16"/>
+      <c r="G23" s="16"/>
+      <c r="H23" s="16"/>
+      <c r="I23" s="16"/>
+      <c r="J23" s="16"/>
+      <c r="K23" s="16"/>
+      <c r="L23" s="16"/>
+      <c r="M23" s="16"/>
+    </row>
+    <row r="24" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="E24" s="16"/>
+      <c r="F24" s="16"/>
+      <c r="G24" s="16"/>
+      <c r="H24" s="16"/>
+      <c r="I24" s="16"/>
+      <c r="J24" s="16"/>
+      <c r="K24" s="16"/>
+      <c r="L24" s="16"/>
+      <c r="M24" s="16"/>
+    </row>
+    <row r="25" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="E25" s="16"/>
+      <c r="F25" s="16"/>
+      <c r="G25" s="16"/>
+      <c r="H25" s="16"/>
+      <c r="I25" s="16"/>
+      <c r="J25" s="16"/>
+      <c r="K25" s="16"/>
+      <c r="L25" s="16"/>
+      <c r="M25" s="16"/>
+    </row>
+    <row r="26" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="E26" s="16"/>
+      <c r="F26" s="16"/>
+      <c r="G26" s="16"/>
+      <c r="H26" s="16"/>
+      <c r="I26" s="16"/>
+      <c r="J26" s="16"/>
+      <c r="K26" s="16"/>
+      <c r="L26" s="16"/>
+      <c r="M26" s="16"/>
+    </row>
+    <row r="27" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="E27" s="16"/>
+      <c r="F27" s="16"/>
+      <c r="G27" s="16"/>
+      <c r="H27" s="16"/>
+      <c r="I27" s="16"/>
+      <c r="J27" s="16"/>
+      <c r="K27" s="16"/>
+      <c r="L27" s="16"/>
+      <c r="M27" s="16"/>
+    </row>
+    <row r="28" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="E28" s="16"/>
+      <c r="F28" s="16"/>
+      <c r="G28" s="16"/>
+      <c r="H28" s="16"/>
+      <c r="I28" s="16"/>
+      <c r="J28" s="16"/>
+      <c r="K28" s="16"/>
+      <c r="L28" s="16"/>
+      <c r="M28" s="16"/>
+    </row>
+    <row r="29" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="E29" s="16"/>
+      <c r="F29" s="16"/>
+      <c r="G29" s="16"/>
+      <c r="H29" s="16"/>
+      <c r="I29" s="16"/>
+      <c r="J29" s="16"/>
+      <c r="K29" s="16"/>
+      <c r="L29" s="16"/>
+      <c r="M29" s="16"/>
+    </row>
+    <row r="30" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="E30" s="16"/>
+      <c r="F30" s="16"/>
+      <c r="G30" s="16"/>
+      <c r="H30" s="16"/>
+      <c r="I30" s="16"/>
+      <c r="J30" s="16"/>
+      <c r="K30" s="16"/>
+      <c r="L30" s="16"/>
+      <c r="M30" s="16"/>
+    </row>
+    <row r="31" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B31" t="s">
+        <v>452</v>
+      </c>
+      <c r="C31" t="s">
+        <v>440</v>
+      </c>
+      <c r="D31" t="s">
+        <v>441</v>
+      </c>
+      <c r="E31" t="s">
+        <v>453</v>
+      </c>
+      <c r="F31" t="s">
+        <v>454</v>
+      </c>
+      <c r="H31" t="s">
+        <v>452</v>
+      </c>
+      <c r="I31" t="s">
+        <v>440</v>
+      </c>
+      <c r="J31" t="s">
+        <v>441</v>
+      </c>
+      <c r="K31" t="s">
+        <v>453</v>
+      </c>
+      <c r="L31" t="s">
+        <v>454</v>
+      </c>
+      <c r="N31" t="s">
+        <v>452</v>
+      </c>
+      <c r="O31" t="s">
+        <v>440</v>
+      </c>
+      <c r="P31" t="s">
+        <v>441</v>
+      </c>
+      <c r="Q31" t="s">
+        <v>453</v>
+      </c>
+      <c r="R31" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="32" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B32" t="s">
+        <v>455</v>
+      </c>
+      <c r="C32">
+        <v>0</v>
+      </c>
+      <c r="D32" t="s">
+        <v>456</v>
+      </c>
+      <c r="E32">
+        <v>1.1513</v>
+      </c>
+      <c r="F32">
+        <v>1.1514</v>
+      </c>
+      <c r="H32" t="s">
+        <v>457</v>
+      </c>
+      <c r="I32">
+        <v>0</v>
+      </c>
+      <c r="J32" t="s">
+        <v>456</v>
+      </c>
+      <c r="K32">
+        <v>1.3097000000000001</v>
+      </c>
+      <c r="L32">
+        <v>1.3098000000000001</v>
+      </c>
+      <c r="N32" t="s">
+        <v>458</v>
+      </c>
+      <c r="O32">
+        <v>0</v>
+      </c>
+      <c r="P32" t="s">
+        <v>456</v>
+      </c>
+      <c r="Q32">
+        <v>156.38999999999999</v>
+      </c>
+      <c r="R32">
+        <v>156.4</v>
+      </c>
+    </row>
+    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B33" t="s">
+        <v>459</v>
+      </c>
+      <c r="C33">
+        <v>1</v>
+      </c>
+      <c r="D33" t="s">
+        <v>456</v>
+      </c>
+      <c r="E33">
+        <v>0.6</v>
+      </c>
+      <c r="F33">
+        <v>0.63</v>
+      </c>
+      <c r="H33" t="s">
+        <v>460</v>
+      </c>
+      <c r="I33">
+        <v>1</v>
+      </c>
+      <c r="J33" t="s">
+        <v>456</v>
+      </c>
+      <c r="K33">
+        <v>-0.02</v>
+      </c>
+      <c r="L33">
+        <v>-0.01</v>
+      </c>
+      <c r="N33" t="s">
+        <v>461</v>
+      </c>
+      <c r="O33">
+        <v>1</v>
+      </c>
+      <c r="P33" t="s">
+        <v>456</v>
+      </c>
+      <c r="Q33">
+        <v>-3.14</v>
+      </c>
+      <c r="R33">
+        <v>-3.13</v>
+      </c>
+    </row>
+    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B34" t="s">
+        <v>462</v>
+      </c>
+      <c r="C34">
+        <v>1</v>
+      </c>
+      <c r="D34" t="s">
+        <v>442</v>
+      </c>
+      <c r="E34">
+        <v>4.63</v>
+      </c>
+      <c r="F34">
+        <v>4.66</v>
+      </c>
+      <c r="H34" t="s">
+        <v>463</v>
+      </c>
+      <c r="I34">
+        <v>1</v>
+      </c>
+      <c r="J34" t="s">
+        <v>442</v>
+      </c>
+      <c r="K34">
+        <v>-0.04</v>
+      </c>
+      <c r="L34">
+        <v>-0.03</v>
+      </c>
+      <c r="N34" t="s">
+        <v>464</v>
+      </c>
+      <c r="O34">
+        <v>1</v>
+      </c>
+      <c r="P34" t="s">
+        <v>442</v>
+      </c>
+      <c r="Q34">
+        <v>-11.39</v>
+      </c>
+      <c r="R34">
+        <v>-11.37</v>
+      </c>
+    </row>
+    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B35" t="s">
+        <v>465</v>
+      </c>
+      <c r="C35">
+        <v>2</v>
+      </c>
+      <c r="D35" t="s">
+        <v>442</v>
+      </c>
+      <c r="E35">
+        <v>9.0500000000000007</v>
+      </c>
+      <c r="F35">
+        <v>9.2100000000000009</v>
+      </c>
+      <c r="H35" t="s">
+        <v>466</v>
+      </c>
+      <c r="I35">
+        <v>2</v>
+      </c>
+      <c r="J35" t="s">
+        <v>442</v>
+      </c>
+      <c r="K35">
+        <v>0.01</v>
+      </c>
+      <c r="L35">
+        <v>0.03</v>
+      </c>
+      <c r="N35" t="s">
+        <v>467</v>
+      </c>
+      <c r="O35">
+        <v>2</v>
+      </c>
+      <c r="P35" t="s">
+        <v>442</v>
+      </c>
+      <c r="Q35">
+        <v>-22.36</v>
+      </c>
+      <c r="R35">
+        <v>-22.35</v>
+      </c>
+    </row>
+    <row r="36" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B36" t="s">
+        <v>468</v>
+      </c>
+      <c r="C36">
+        <v>3</v>
+      </c>
+      <c r="D36" t="s">
+        <v>442</v>
+      </c>
+      <c r="E36">
+        <v>13.34</v>
+      </c>
+      <c r="F36">
+        <v>13.43</v>
+      </c>
+      <c r="H36" t="s">
+        <v>469</v>
+      </c>
+      <c r="I36">
+        <v>3</v>
+      </c>
+      <c r="J36" t="s">
+        <v>442</v>
+      </c>
+      <c r="K36">
+        <v>-0.09</v>
+      </c>
+      <c r="L36">
+        <v>0.09</v>
+      </c>
+      <c r="N36" t="s">
+        <v>470</v>
+      </c>
+      <c r="O36">
+        <v>3</v>
+      </c>
+      <c r="P36" t="s">
+        <v>442</v>
+      </c>
+      <c r="Q36">
+        <v>-33</v>
+      </c>
+      <c r="R36">
+        <v>-32</v>
+      </c>
+    </row>
+    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B37" t="s">
+        <v>471</v>
+      </c>
+      <c r="C37">
+        <v>1</v>
+      </c>
+      <c r="D37" t="s">
+        <v>443</v>
+      </c>
+      <c r="E37">
+        <v>21.21</v>
+      </c>
+      <c r="F37">
+        <v>21.37</v>
+      </c>
+      <c r="H37" t="s">
+        <v>472</v>
+      </c>
+      <c r="I37">
+        <v>1</v>
+      </c>
+      <c r="J37" t="s">
+        <v>443</v>
+      </c>
+      <c r="K37">
+        <v>-0.02</v>
+      </c>
+      <c r="L37">
+        <v>0.02</v>
+      </c>
+      <c r="N37" t="s">
+        <v>473</v>
+      </c>
+      <c r="O37">
+        <v>1</v>
+      </c>
+      <c r="P37" t="s">
+        <v>443</v>
+      </c>
+      <c r="Q37">
+        <v>-46.89</v>
+      </c>
+      <c r="R37">
+        <v>-45.82</v>
+      </c>
+    </row>
+    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B38" t="s">
+        <v>474</v>
+      </c>
+      <c r="C38">
+        <v>2</v>
+      </c>
+      <c r="D38" t="s">
+        <v>443</v>
+      </c>
+      <c r="E38">
+        <v>38.200000000000003</v>
+      </c>
+      <c r="F38">
+        <v>41.73</v>
+      </c>
+      <c r="H38" t="s">
+        <v>475</v>
+      </c>
+      <c r="I38">
+        <v>2</v>
+      </c>
+      <c r="J38" t="s">
+        <v>443</v>
+      </c>
+      <c r="K38">
+        <v>0.32</v>
+      </c>
+      <c r="L38">
+        <v>0.42</v>
+      </c>
+      <c r="N38" t="s">
+        <v>476</v>
+      </c>
+      <c r="O38">
+        <v>2</v>
+      </c>
+      <c r="P38" t="s">
+        <v>443</v>
+      </c>
+      <c r="Q38">
+        <v>-98.5</v>
+      </c>
+      <c r="R38">
+        <v>-97.07</v>
+      </c>
+    </row>
+    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B39" t="s">
+        <v>477</v>
+      </c>
+      <c r="C39">
+        <v>3</v>
+      </c>
+      <c r="D39" t="s">
+        <v>443</v>
+      </c>
+      <c r="E39">
+        <v>55.74</v>
+      </c>
+      <c r="F39">
+        <v>59.04</v>
+      </c>
+      <c r="H39" t="s">
+        <v>478</v>
+      </c>
+      <c r="I39">
+        <v>3</v>
+      </c>
+      <c r="J39" t="s">
+        <v>443</v>
+      </c>
+      <c r="K39">
+        <v>0.23</v>
+      </c>
+      <c r="L39">
+        <v>0.39</v>
+      </c>
+      <c r="N39" t="s">
+        <v>479</v>
+      </c>
+      <c r="O39">
+        <v>3</v>
+      </c>
+      <c r="P39" t="s">
+        <v>443</v>
+      </c>
+      <c r="Q39">
+        <v>-141.72</v>
+      </c>
+      <c r="R39">
+        <v>-140.47999999999999</v>
+      </c>
+    </row>
+    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B40" t="s">
+        <v>480</v>
+      </c>
+      <c r="C40">
+        <v>4</v>
+      </c>
+      <c r="D40" t="s">
+        <v>443</v>
+      </c>
+      <c r="E40">
+        <v>70.040000000000006</v>
+      </c>
+      <c r="F40">
+        <v>76.459999999999994</v>
+      </c>
+      <c r="H40" t="s">
+        <v>481</v>
+      </c>
+      <c r="I40">
+        <v>4</v>
+      </c>
+      <c r="J40" t="s">
+        <v>443</v>
+      </c>
+      <c r="K40">
+        <v>0.17</v>
+      </c>
+      <c r="L40">
+        <v>0.43</v>
+      </c>
+      <c r="N40" t="s">
+        <v>482</v>
+      </c>
+      <c r="O40">
+        <v>4</v>
+      </c>
+      <c r="P40" t="s">
+        <v>443</v>
+      </c>
+      <c r="Q40">
+        <v>-181.81</v>
+      </c>
+      <c r="R40">
+        <v>-178.32</v>
+      </c>
+    </row>
+    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B41" t="s">
+        <v>483</v>
+      </c>
+      <c r="C41">
+        <v>5</v>
+      </c>
+      <c r="D41" t="s">
+        <v>443</v>
+      </c>
+      <c r="E41">
+        <v>88.07</v>
+      </c>
+      <c r="F41">
+        <v>94.53</v>
+      </c>
+      <c r="H41" t="s">
+        <v>484</v>
+      </c>
+      <c r="I41">
+        <v>5</v>
+      </c>
+      <c r="J41" t="s">
+        <v>443</v>
+      </c>
+      <c r="K41">
+        <v>-0.1</v>
+      </c>
+      <c r="L41">
+        <v>0.26</v>
+      </c>
+      <c r="N41" t="s">
+        <v>485</v>
+      </c>
+      <c r="O41">
+        <v>5</v>
+      </c>
+      <c r="P41" t="s">
+        <v>443</v>
+      </c>
+      <c r="Q41">
+        <v>-225.77</v>
+      </c>
+      <c r="R41">
+        <v>-225.38</v>
+      </c>
+    </row>
+    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B42" t="s">
+        <v>486</v>
+      </c>
+      <c r="C42">
+        <v>6</v>
+      </c>
+      <c r="D42" t="s">
+        <v>443</v>
+      </c>
+      <c r="E42">
+        <v>104.27</v>
+      </c>
+      <c r="F42">
+        <v>109.53</v>
+      </c>
+      <c r="H42" t="s">
+        <v>487</v>
+      </c>
+      <c r="I42">
+        <v>6</v>
+      </c>
+      <c r="J42" t="s">
+        <v>443</v>
+      </c>
+      <c r="K42">
+        <v>-0.23</v>
+      </c>
+      <c r="L42">
+        <v>0.22</v>
+      </c>
+      <c r="N42" t="s">
+        <v>488</v>
+      </c>
+      <c r="O42">
+        <v>6</v>
+      </c>
+      <c r="P42" t="s">
+        <v>443</v>
+      </c>
+      <c r="Q42">
+        <v>-263.36</v>
+      </c>
+      <c r="R42">
+        <v>-263.02999999999997</v>
+      </c>
+    </row>
+    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B43" t="s">
+        <v>489</v>
+      </c>
+      <c r="C43">
+        <v>7</v>
+      </c>
+      <c r="D43" t="s">
+        <v>443</v>
+      </c>
+      <c r="E43">
+        <v>117.15</v>
+      </c>
+      <c r="F43">
+        <v>128.05000000000001</v>
+      </c>
+      <c r="H43" t="s">
+        <v>490</v>
+      </c>
+      <c r="I43">
+        <v>7</v>
+      </c>
+      <c r="J43" t="s">
+        <v>443</v>
+      </c>
+      <c r="K43">
+        <v>-0.59</v>
+      </c>
+      <c r="L43">
+        <v>-0.05</v>
+      </c>
+      <c r="N43" t="s">
+        <v>491</v>
+      </c>
+      <c r="O43">
+        <v>7</v>
+      </c>
+      <c r="P43" t="s">
+        <v>443</v>
+      </c>
+      <c r="Q43">
+        <v>-299.33</v>
+      </c>
+      <c r="R43">
+        <v>-299.08</v>
+      </c>
+    </row>
+    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B44" t="s">
+        <v>492</v>
+      </c>
+      <c r="C44">
+        <v>8</v>
+      </c>
+      <c r="D44" t="s">
+        <v>443</v>
+      </c>
+      <c r="E44">
+        <v>134.65</v>
+      </c>
+      <c r="F44">
+        <v>141.9</v>
+      </c>
+      <c r="H44" t="s">
+        <v>493</v>
+      </c>
+      <c r="I44">
+        <v>8</v>
+      </c>
+      <c r="J44" t="s">
+        <v>443</v>
+      </c>
+      <c r="K44">
+        <v>-2.0299999999999998</v>
+      </c>
+      <c r="L44">
+        <v>-1.35</v>
+      </c>
+      <c r="N44" t="s">
+        <v>494</v>
+      </c>
+      <c r="O44">
+        <v>8</v>
+      </c>
+      <c r="P44" t="s">
+        <v>443</v>
+      </c>
+      <c r="Q44">
+        <v>-337.26</v>
+      </c>
+      <c r="R44">
+        <v>-337.08</v>
+      </c>
+    </row>
+    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B45" t="s">
+        <v>495</v>
+      </c>
+      <c r="C45">
+        <v>9</v>
+      </c>
+      <c r="D45" t="s">
+        <v>443</v>
+      </c>
+      <c r="E45">
+        <v>146.47</v>
+      </c>
+      <c r="F45">
+        <v>157.03</v>
+      </c>
+      <c r="H45" t="s">
+        <v>496</v>
+      </c>
+      <c r="I45">
+        <v>9</v>
+      </c>
+      <c r="J45" t="s">
+        <v>443</v>
+      </c>
+      <c r="K45">
+        <v>-3.83</v>
+      </c>
+      <c r="L45">
+        <v>-3.01</v>
+      </c>
+      <c r="N45" t="s">
+        <v>497</v>
+      </c>
+      <c r="O45">
+        <v>9</v>
+      </c>
+      <c r="P45" t="s">
+        <v>443</v>
+      </c>
+      <c r="Q45">
+        <v>-373.45</v>
+      </c>
+      <c r="R45">
+        <v>-373.33</v>
+      </c>
+    </row>
+    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B46" t="s">
+        <v>498</v>
+      </c>
+      <c r="C46">
+        <v>10</v>
+      </c>
+      <c r="D46" t="s">
+        <v>443</v>
+      </c>
+      <c r="E46">
+        <v>161.62</v>
+      </c>
+      <c r="F46">
+        <v>169.18</v>
+      </c>
+      <c r="H46" t="s">
+        <v>499</v>
+      </c>
+      <c r="I46">
+        <v>10</v>
+      </c>
+      <c r="J46" t="s">
+        <v>443</v>
+      </c>
+      <c r="K46">
+        <v>-6.07</v>
+      </c>
+      <c r="L46">
+        <v>-5.1100000000000003</v>
+      </c>
+      <c r="N46" t="s">
+        <v>500</v>
+      </c>
+      <c r="O46">
+        <v>10</v>
+      </c>
+      <c r="P46" t="s">
+        <v>443</v>
+      </c>
+      <c r="Q46">
+        <v>-409.47</v>
+      </c>
+      <c r="R46">
+        <v>-409.43</v>
+      </c>
+    </row>
+    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B47" t="s">
+        <v>501</v>
+      </c>
+      <c r="C47">
+        <v>11</v>
+      </c>
+      <c r="D47" t="s">
+        <v>443</v>
+      </c>
+      <c r="E47">
+        <v>173.92</v>
+      </c>
+      <c r="F47">
+        <v>183.48</v>
+      </c>
+      <c r="H47" t="s">
+        <v>502</v>
+      </c>
+      <c r="I47">
+        <v>11</v>
+      </c>
+      <c r="J47" t="s">
+        <v>443</v>
+      </c>
+      <c r="K47">
+        <v>-9.1</v>
+      </c>
+      <c r="L47">
+        <v>-8</v>
+      </c>
+      <c r="N47" t="s">
+        <v>503</v>
+      </c>
+      <c r="O47">
+        <v>11</v>
+      </c>
+      <c r="P47" t="s">
+        <v>443</v>
+      </c>
+      <c r="Q47">
+        <v>-437.19</v>
+      </c>
+      <c r="R47">
+        <v>-437.18</v>
+      </c>
+    </row>
+    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B48" t="s">
+        <v>504</v>
+      </c>
+      <c r="C48">
+        <v>12</v>
+      </c>
+      <c r="D48" t="s">
+        <v>443</v>
+      </c>
+      <c r="E48">
+        <v>186.62</v>
+      </c>
+      <c r="F48">
+        <v>196.18</v>
+      </c>
+      <c r="H48" t="s">
+        <v>505</v>
+      </c>
+      <c r="I48">
+        <v>12</v>
+      </c>
+      <c r="J48" t="s">
+        <v>443</v>
+      </c>
+      <c r="K48">
+        <v>-12.32</v>
+      </c>
+      <c r="L48">
+        <v>-10.92</v>
+      </c>
+      <c r="N48" t="s">
+        <v>506</v>
+      </c>
+      <c r="O48">
+        <v>12</v>
+      </c>
+      <c r="P48" t="s">
+        <v>443</v>
+      </c>
+      <c r="Q48">
+        <v>-468.55</v>
+      </c>
+      <c r="R48">
+        <v>-466.35</v>
+      </c>
+    </row>
+    <row r="49" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B49" t="s">
+        <v>507</v>
+      </c>
+      <c r="C49">
+        <v>15</v>
+      </c>
+      <c r="D49" t="s">
+        <v>443</v>
+      </c>
+      <c r="E49">
+        <v>228.3</v>
+      </c>
+      <c r="F49">
+        <v>229.7</v>
+      </c>
+      <c r="H49" t="s">
+        <v>508</v>
+      </c>
+      <c r="I49">
+        <v>15</v>
+      </c>
+      <c r="J49" t="s">
+        <v>443</v>
+      </c>
+      <c r="K49">
+        <v>-23.28</v>
+      </c>
+      <c r="L49">
+        <v>-23.22</v>
+      </c>
+      <c r="N49" t="s">
+        <v>509</v>
+      </c>
+      <c r="O49">
+        <v>15</v>
+      </c>
+      <c r="P49" t="s">
+        <v>443</v>
+      </c>
+      <c r="Q49">
+        <v>-566.86</v>
+      </c>
+      <c r="R49">
+        <v>-561.54</v>
+      </c>
+    </row>
+    <row r="50" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B50" t="s">
+        <v>510</v>
+      </c>
+      <c r="C50">
+        <v>21</v>
+      </c>
+      <c r="D50" t="s">
+        <v>443</v>
+      </c>
+      <c r="E50">
+        <v>292.68</v>
+      </c>
+      <c r="F50">
+        <v>295.47000000000003</v>
+      </c>
+      <c r="H50" t="s">
+        <v>511</v>
+      </c>
+      <c r="I50">
+        <v>21</v>
+      </c>
+      <c r="J50" t="s">
+        <v>443</v>
+      </c>
+      <c r="K50">
+        <v>-60.68</v>
+      </c>
+      <c r="L50">
+        <v>-40.1</v>
+      </c>
+      <c r="N50" t="s">
+        <v>512</v>
+      </c>
+      <c r="O50">
+        <v>21</v>
+      </c>
+      <c r="P50" t="s">
+        <v>443</v>
+      </c>
+      <c r="Q50">
+        <v>-728.19</v>
+      </c>
+      <c r="R50">
+        <v>-728.13</v>
+      </c>
+    </row>
+    <row r="51" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B51" t="s">
+        <v>513</v>
+      </c>
+      <c r="C51">
+        <v>2</v>
+      </c>
+      <c r="D51" t="s">
+        <v>451</v>
+      </c>
+      <c r="E51">
+        <v>324.75</v>
+      </c>
+      <c r="F51">
+        <v>328.25</v>
+      </c>
+      <c r="H51" t="s">
+        <v>514</v>
+      </c>
+      <c r="I51">
+        <v>2</v>
+      </c>
+      <c r="J51" t="s">
+        <v>451</v>
+      </c>
+      <c r="K51">
+        <v>-67.72</v>
+      </c>
+      <c r="L51">
+        <v>-60.59</v>
+      </c>
+      <c r="N51" t="s">
+        <v>515</v>
+      </c>
+      <c r="O51">
+        <v>2</v>
+      </c>
+      <c r="P51" t="s">
+        <v>451</v>
+      </c>
+      <c r="Q51">
+        <v>-802.53</v>
+      </c>
+      <c r="R51">
+        <v>-802.21</v>
+      </c>
+    </row>
+    <row r="52" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B52" t="s">
+        <v>516</v>
+      </c>
+      <c r="C52">
+        <v>3</v>
+      </c>
+      <c r="D52" t="s">
+        <v>451</v>
+      </c>
+      <c r="E52">
+        <v>442.41</v>
+      </c>
+      <c r="F52">
+        <v>453.36</v>
+      </c>
+      <c r="H52" t="s">
+        <v>517</v>
+      </c>
+      <c r="I52">
+        <v>3</v>
+      </c>
+      <c r="J52" t="s">
+        <v>451</v>
+      </c>
+      <c r="K52">
+        <v>-133</v>
+      </c>
+      <c r="L52">
+        <v>-113</v>
+      </c>
+      <c r="N52" t="s">
+        <v>518</v>
+      </c>
+      <c r="O52">
+        <v>3</v>
+      </c>
+      <c r="P52" t="s">
+        <v>451</v>
+      </c>
+      <c r="Q52">
+        <v>-1135</v>
+      </c>
+      <c r="R52">
+        <v>-1113</v>
+      </c>
+    </row>
+    <row r="53" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B53" t="s">
+        <v>519</v>
+      </c>
+      <c r="C53">
+        <v>4</v>
+      </c>
+      <c r="D53" t="s">
+        <v>451</v>
+      </c>
+      <c r="E53">
+        <v>560.1</v>
+      </c>
+      <c r="F53">
+        <v>574.82000000000005</v>
+      </c>
+      <c r="H53" t="s">
+        <v>520</v>
+      </c>
+      <c r="I53">
+        <v>4</v>
+      </c>
+      <c r="J53" t="s">
+        <v>451</v>
+      </c>
+      <c r="K53">
+        <v>-192.5</v>
+      </c>
+      <c r="L53">
+        <v>-152.5</v>
+      </c>
+      <c r="N53" t="s">
+        <v>521</v>
+      </c>
+      <c r="O53">
+        <v>4</v>
+      </c>
+      <c r="P53" t="s">
+        <v>451</v>
+      </c>
+      <c r="Q53">
+        <v>-1462</v>
+      </c>
+      <c r="R53">
+        <v>-1432</v>
+      </c>
+    </row>
+    <row r="54" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B54" t="s">
+        <v>522</v>
+      </c>
+      <c r="C54">
+        <v>5</v>
+      </c>
+      <c r="D54" t="s">
+        <v>451</v>
+      </c>
+      <c r="E54">
+        <v>682.38</v>
+      </c>
+      <c r="F54">
+        <v>700.95</v>
+      </c>
+      <c r="H54" t="s">
+        <v>523</v>
+      </c>
+      <c r="I54">
+        <v>5</v>
+      </c>
+      <c r="J54" t="s">
+        <v>451</v>
+      </c>
+      <c r="K54">
+        <v>-236.7</v>
+      </c>
+      <c r="L54">
+        <v>-186.7</v>
+      </c>
+      <c r="N54" t="s">
+        <v>524</v>
+      </c>
+      <c r="O54">
+        <v>5</v>
+      </c>
+      <c r="P54" t="s">
+        <v>451</v>
+      </c>
+      <c r="Q54">
+        <v>-1789</v>
+      </c>
+      <c r="R54">
+        <v>-1750</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{99E415F5-B621-F640-AE11-8393F8CDBC96}">
   <dimension ref="A1"/>
   <sheetViews>
@@ -14809,7 +16863,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB27A0B6-1D19-CA4A-BA02-75C16159EDD4}">
   <dimension ref="A1"/>
   <sheetViews>

--- a/Market Data.xlsx
+++ b/Market Data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ptp/Documents/Pushkar/Python/Derivatives Pricing/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{636EE357-2BFD-C040-8D01-C4B2C0BCAF6E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CEF72CA-301B-D44A-B956-0B2EBFD6DC6E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1800" yWindow="1900" windowWidth="25120" windowHeight="21400" activeTab="6" xr2:uid="{77BC7AFC-A077-CB42-B4DA-3EC3BF4E2F1A}"/>
+    <workbookView xWindow="1800" yWindow="1900" windowWidth="25120" windowHeight="21400" activeTab="9" xr2:uid="{77BC7AFC-A077-CB42-B4DA-3EC3BF4E2F1A}"/>
   </bookViews>
   <sheets>
     <sheet name="Brent" sheetId="1" r:id="rId1"/>
@@ -22,6 +22,7 @@
     <sheet name="FXO" sheetId="10" r:id="rId7"/>
     <sheet name="INROIS" sheetId="4" r:id="rId8"/>
     <sheet name="INRMIF" sheetId="5" r:id="rId9"/>
+    <sheet name="FXOTrades" sheetId="11" r:id="rId10"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -41,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1027" uniqueCount="525">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1043" uniqueCount="538">
   <si>
     <t>Date</t>
   </si>
@@ -1616,6 +1617,45 @@
   </si>
   <si>
     <t>USDJPY 5Y FWD</t>
+  </si>
+  <si>
+    <t>Sr No</t>
+  </si>
+  <si>
+    <t>Pair</t>
+  </si>
+  <si>
+    <t>Not CCY</t>
+  </si>
+  <si>
+    <t>Notional</t>
+  </si>
+  <si>
+    <t>Style</t>
+  </si>
+  <si>
+    <t>Side</t>
+  </si>
+  <si>
+    <t>Strike</t>
+  </si>
+  <si>
+    <t>Delivery</t>
+  </si>
+  <si>
+    <t>EUR/USD</t>
+  </si>
+  <si>
+    <t>EUR</t>
+  </si>
+  <si>
+    <t>Put</t>
+  </si>
+  <si>
+    <t>Buy</t>
+  </si>
+  <si>
+    <t>Call</t>
   </si>
 </sst>
 </file>
@@ -2145,7 +2185,7 @@
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
@@ -2171,6 +2211,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="43">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -2228,6 +2269,161 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>90</xdr:row>
+      <xdr:rowOff>10439</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CD905235-68C1-45E0-B4B6-87393CEF01A1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="825500" y="11988800"/>
+          <a:ext cx="7772400" cy="6309639"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>90</xdr:row>
+      <xdr:rowOff>120458</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Picture 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{01A3EA65-B2CF-57FB-35DF-09AECF02E5F0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9906000" y="11988800"/>
+          <a:ext cx="7772400" cy="6419658"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>94</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>125</xdr:row>
+      <xdr:rowOff>120458</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="Picture 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{045AEA2B-58AA-5DBE-0066-DED0B36C3341}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="825500" y="19100800"/>
+          <a:ext cx="7772400" cy="6419658"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3432,6 +3628,99 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{60B2AB54-F7FB-EB43-978F-31713BD75961}">
+  <dimension ref="A1:H3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G3" sqref="G3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>525</v>
+      </c>
+      <c r="B1" t="s">
+        <v>526</v>
+      </c>
+      <c r="C1" t="s">
+        <v>527</v>
+      </c>
+      <c r="D1" t="s">
+        <v>528</v>
+      </c>
+      <c r="E1" t="s">
+        <v>529</v>
+      </c>
+      <c r="F1" t="s">
+        <v>530</v>
+      </c>
+      <c r="G1" t="s">
+        <v>531</v>
+      </c>
+      <c r="H1" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>533</v>
+      </c>
+      <c r="C2" t="s">
+        <v>534</v>
+      </c>
+      <c r="D2" s="21">
+        <v>1000000</v>
+      </c>
+      <c r="E2" t="s">
+        <v>535</v>
+      </c>
+      <c r="F2" t="s">
+        <v>536</v>
+      </c>
+      <c r="G2">
+        <v>1.1599999999999999</v>
+      </c>
+      <c r="H2" s="6">
+        <v>46037</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>533</v>
+      </c>
+      <c r="C3" t="s">
+        <v>534</v>
+      </c>
+      <c r="D3" s="21">
+        <v>2000000</v>
+      </c>
+      <c r="E3" t="s">
+        <v>537</v>
+      </c>
+      <c r="F3" t="s">
+        <v>536</v>
+      </c>
+      <c r="G3">
+        <v>1.165</v>
+      </c>
+      <c r="H3" s="6">
+        <v>46290</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{11A369F7-9855-674A-B8C2-00B5568AEA61}">
   <dimension ref="A1:P16"/>
@@ -15048,8 +15337,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD607EAD-EB52-7C43-AE3A-8CB31438688B}">
   <dimension ref="B2:R54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="K21" sqref="K21"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="O22" sqref="O22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -15094,19 +15383,19 @@
         <v>442</v>
       </c>
       <c r="D3" s="18">
-        <v>6.3500000000000001E-2</v>
+        <v>5.0599999999999999E-2</v>
       </c>
       <c r="E3" s="18">
-        <v>4.6999999999999993E-3</v>
+        <v>1.65E-3</v>
       </c>
       <c r="F3" s="18">
-        <v>1.1999999999999999E-3</v>
+        <v>1.32E-3</v>
       </c>
       <c r="G3" s="18">
-        <v>7.6249999999999998E-3</v>
+        <v>3.0500000000000002E-3</v>
       </c>
       <c r="H3" s="18">
-        <v>3.7499999999999999E-3</v>
+        <v>4.5500000000000002E-3</v>
       </c>
       <c r="J3" s="17"/>
       <c r="K3" s="2">
@@ -15116,7 +15405,7 @@
         <v>442</v>
       </c>
       <c r="M3" s="7">
-        <v>4.3083499999999997E-2</v>
+        <v>4.0557000000000003E-2</v>
       </c>
     </row>
     <row r="4" spans="2:13" x14ac:dyDescent="0.2">
@@ -15127,19 +15416,19 @@
         <v>442</v>
       </c>
       <c r="D4" s="18">
-        <v>6.1925000000000008E-2</v>
+        <v>5.5530000000000003E-2</v>
       </c>
       <c r="E4" s="18">
-        <v>5.0499999999999998E-3</v>
+        <v>1.6199999999999999E-3</v>
       </c>
       <c r="F4" s="18">
-        <v>1.1999999999999999E-3</v>
+        <v>1.4300000000000001E-3</v>
       </c>
       <c r="G4" s="18">
-        <v>7.4249999999999993E-3</v>
+        <v>2.8999999999999998E-3</v>
       </c>
       <c r="H4" s="18">
-        <v>3.8E-3</v>
+        <v>4.7699999999999999E-3</v>
       </c>
       <c r="K4" s="2">
         <v>2</v>
@@ -15148,7 +15437,7 @@
         <v>442</v>
       </c>
       <c r="M4" s="7">
-        <v>4.3149199999999999E-2</v>
+        <v>3.9697999999999997E-2</v>
       </c>
     </row>
     <row r="5" spans="2:13" x14ac:dyDescent="0.2">
@@ -15159,19 +15448,19 @@
         <v>442</v>
       </c>
       <c r="D5" s="18">
-        <v>5.9975000000000007E-2</v>
+        <v>5.577E-2</v>
       </c>
       <c r="E5" s="18">
-        <v>6.9750000000000003E-3</v>
+        <v>1.75E-3</v>
       </c>
       <c r="F5" s="18">
-        <v>1.25E-3</v>
+        <v>1.48E-3</v>
       </c>
       <c r="G5" s="18">
-        <v>9.1750000000000009E-3</v>
+        <v>3.1199999999999999E-3</v>
       </c>
       <c r="H5" s="18">
-        <v>3.8250000000000003E-3</v>
+        <v>5.13E-3</v>
       </c>
       <c r="K5" s="2">
         <v>3</v>
@@ -15180,7 +15469,7 @@
         <v>442</v>
       </c>
       <c r="M5" s="7">
-        <v>4.3179000000000002E-2</v>
+        <v>3.9004999999999998E-2</v>
       </c>
     </row>
     <row r="6" spans="2:13" x14ac:dyDescent="0.2">
@@ -15191,19 +15480,19 @@
         <v>443</v>
       </c>
       <c r="D6" s="18">
-        <v>6.1349999999999995E-2</v>
+        <v>5.543E-2</v>
       </c>
       <c r="E6" s="18">
-        <v>6.1500000000000001E-3</v>
+        <v>1.8E-3</v>
       </c>
       <c r="F6" s="18">
-        <v>1.5249999999999999E-3</v>
+        <v>1.5200000000000001E-3</v>
       </c>
       <c r="G6" s="18">
-        <v>8.2749999999999994E-3</v>
+        <v>3.2200000000000002E-3</v>
       </c>
       <c r="H6" s="18">
-        <v>4.5750000000000001E-3</v>
+        <v>5.3200000000000001E-3</v>
       </c>
       <c r="K6" s="2">
         <v>1</v>
@@ -15212,7 +15501,7 @@
         <v>443</v>
       </c>
       <c r="M6" s="7">
-        <v>4.3230499999999998E-2</v>
+        <v>3.8779000000000001E-2</v>
       </c>
     </row>
     <row r="7" spans="2:13" x14ac:dyDescent="0.2">
@@ -15223,19 +15512,19 @@
         <v>443</v>
       </c>
       <c r="D7" s="18">
-        <v>6.1225000000000002E-2</v>
+        <v>5.713E-2</v>
       </c>
       <c r="E7" s="18">
-        <v>6.6E-3</v>
+        <v>1.8E-3</v>
       </c>
       <c r="F7" s="18">
-        <v>1.7750000000000001E-3</v>
+        <v>1.75E-3</v>
       </c>
       <c r="G7" s="18">
-        <v>9.0999999999999987E-3</v>
+        <v>3.4299999999999999E-3</v>
       </c>
       <c r="H7" s="18">
-        <v>5.3E-3</v>
+        <v>6.2300000000000003E-3</v>
       </c>
       <c r="K7" s="2">
         <v>2</v>
@@ -15244,7 +15533,7 @@
         <v>443</v>
       </c>
       <c r="M7" s="7">
-        <v>4.3283799999999997E-2</v>
+        <v>3.8258E-2</v>
       </c>
     </row>
     <row r="8" spans="2:13" x14ac:dyDescent="0.2">
@@ -15255,19 +15544,19 @@
         <v>443</v>
       </c>
       <c r="D8" s="18">
-        <v>6.1150000000000003E-2</v>
+        <v>5.8130000000000001E-2</v>
       </c>
       <c r="E8" s="18">
-        <v>6.7000000000000002E-3</v>
+        <v>2.0699999999999998E-3</v>
       </c>
       <c r="F8" s="18">
-        <v>2.2500000000000003E-3</v>
+        <v>1.8500000000000001E-3</v>
       </c>
       <c r="G8" s="18">
-        <v>1.0075000000000001E-2</v>
+        <v>3.8E-3</v>
       </c>
       <c r="H8" s="18">
-        <v>6.9500000000000004E-3</v>
+        <v>6.8500000000000002E-3</v>
       </c>
       <c r="K8" s="2">
         <v>3</v>
@@ -15276,7 +15565,7 @@
         <v>443</v>
       </c>
       <c r="M8" s="7">
-        <v>4.32185E-2</v>
+        <v>3.7864000000000002E-2</v>
       </c>
     </row>
     <row r="9" spans="2:13" x14ac:dyDescent="0.2">
@@ -15287,19 +15576,19 @@
         <v>443</v>
       </c>
       <c r="D9" s="18">
-        <v>6.0525000000000002E-2</v>
+        <v>5.9049999999999998E-2</v>
       </c>
       <c r="E9" s="18">
-        <v>7.0499999999999998E-3</v>
+        <v>2.2799999999999999E-3</v>
       </c>
       <c r="F9" s="18">
-        <v>2.3499999999999997E-3</v>
+        <v>2.0500000000000002E-3</v>
       </c>
       <c r="G9" s="18">
-        <v>1.0449999999999999E-2</v>
+        <v>4.1799999999999997E-3</v>
       </c>
       <c r="H9" s="18">
-        <v>7.1249999999999994E-3</v>
+        <v>7.6699999999999997E-3</v>
       </c>
       <c r="K9" s="2">
         <v>4</v>
@@ -15308,7 +15597,7 @@
         <v>443</v>
       </c>
       <c r="M9" s="7">
-        <v>4.3148800000000001E-2</v>
+        <v>3.7582999999999998E-2</v>
       </c>
     </row>
     <row r="10" spans="2:13" x14ac:dyDescent="0.2">
@@ -15319,19 +15608,19 @@
         <v>443</v>
       </c>
       <c r="D10" s="18">
-        <v>0.06</v>
+        <v>6.0479999999999999E-2</v>
       </c>
       <c r="E10" s="18">
-        <v>7.8500000000000011E-3</v>
+        <v>2.48E-3</v>
       </c>
       <c r="F10" s="18">
-        <v>2.5999999999999999E-3</v>
+        <v>2.2699999999999999E-3</v>
       </c>
       <c r="G10" s="18">
-        <v>1.1524999999999999E-2</v>
+        <v>4.6499999999999996E-3</v>
       </c>
       <c r="H10" s="18">
-        <v>7.8500000000000011E-3</v>
+        <v>8.5500000000000003E-3</v>
       </c>
       <c r="K10" s="2">
         <v>5</v>
@@ -15340,7 +15629,7 @@
         <v>443</v>
       </c>
       <c r="M10" s="7">
-        <v>4.2944000000000003E-2</v>
+        <v>3.7297999999999998E-2</v>
       </c>
     </row>
     <row r="11" spans="2:13" x14ac:dyDescent="0.2">
@@ -15351,19 +15640,19 @@
         <v>443</v>
       </c>
       <c r="D11" s="18">
-        <v>6.0924999999999993E-2</v>
+        <v>6.25E-2</v>
       </c>
       <c r="E11" s="18">
-        <v>7.575000000000001E-3</v>
+        <v>2.8E-3</v>
       </c>
       <c r="F11" s="18">
-        <v>2.6749999999999994E-3</v>
+        <v>2.5999999999999999E-3</v>
       </c>
       <c r="G11" s="18">
-        <v>1.1825E-2</v>
+        <v>5.3E-3</v>
       </c>
       <c r="H11" s="18">
-        <v>8.3999999999999995E-3</v>
+        <v>9.9000000000000008E-3</v>
       </c>
       <c r="K11" s="2">
         <v>6</v>
@@ -15372,7 +15661,7 @@
         <v>443</v>
       </c>
       <c r="M11" s="7">
-        <v>4.2667999999999998E-2</v>
+        <v>3.6977000000000003E-2</v>
       </c>
     </row>
     <row r="12" spans="2:13" x14ac:dyDescent="0.2">
@@ -15383,19 +15672,19 @@
         <v>443</v>
       </c>
       <c r="D12" s="18">
-        <v>6.1400000000000003E-2</v>
+        <v>6.4380000000000007E-2</v>
       </c>
       <c r="E12" s="18">
-        <v>8.1499999999999993E-3</v>
+        <v>2.97E-3</v>
       </c>
       <c r="F12" s="18">
-        <v>3.15E-3</v>
+        <v>2.9199999999999999E-3</v>
       </c>
       <c r="G12" s="18">
-        <v>1.2924999999999999E-2</v>
+        <v>5.5999999999999999E-3</v>
       </c>
       <c r="H12" s="18">
-        <v>9.7000000000000003E-3</v>
+        <v>1.0999999999999999E-2</v>
       </c>
       <c r="K12" s="2">
         <v>7</v>
@@ -15404,7 +15693,7 @@
         <v>443</v>
       </c>
       <c r="M12" s="7">
-        <v>4.2358300000000002E-2</v>
+        <v>3.6679999999999997E-2</v>
       </c>
     </row>
     <row r="13" spans="2:13" x14ac:dyDescent="0.2">
@@ -15415,19 +15704,19 @@
         <v>443</v>
       </c>
       <c r="D13" s="18">
-        <v>6.0999999999999999E-2</v>
+        <v>6.6400000000000001E-2</v>
       </c>
       <c r="E13" s="18">
-        <v>7.8499999999999993E-3</v>
+        <v>2.48E-3</v>
       </c>
       <c r="F13" s="18">
-        <v>2.8000000000000004E-3</v>
+        <v>3.0999999999999999E-3</v>
       </c>
       <c r="G13" s="18">
-        <v>1.1899999999999999E-2</v>
+        <v>4.7800000000000004E-3</v>
       </c>
       <c r="H13" s="18">
-        <v>8.7500000000000008E-3</v>
+        <v>1.167E-2</v>
       </c>
       <c r="K13" s="2">
         <v>8</v>
@@ -15436,7 +15725,7 @@
         <v>443</v>
       </c>
       <c r="M13" s="7">
-        <v>4.2030199999999997E-2</v>
+        <v>3.6299999999999999E-2</v>
       </c>
     </row>
     <row r="14" spans="2:13" x14ac:dyDescent="0.2">
@@ -15447,19 +15736,19 @@
         <v>451</v>
       </c>
       <c r="D14" s="18">
-        <v>6.0824999999999997E-2</v>
+        <v>6.7330000000000001E-2</v>
       </c>
       <c r="E14" s="18">
-        <v>8.0000000000000002E-3</v>
+        <v>2.2799999999999999E-3</v>
       </c>
       <c r="F14" s="18">
-        <v>2.7000000000000001E-3</v>
+        <v>3.2200000000000002E-3</v>
       </c>
       <c r="G14" s="18">
-        <v>1.2000000000000002E-2</v>
+        <v>4.5500000000000002E-3</v>
       </c>
       <c r="H14" s="18">
-        <v>8.6499999999999997E-3</v>
+        <v>1.2E-2</v>
       </c>
       <c r="K14" s="2">
         <v>9</v>
@@ -15468,7 +15757,7 @@
         <v>443</v>
       </c>
       <c r="M14" s="7">
-        <v>4.1661999999999998E-2</v>
+        <v>3.5957000000000003E-2</v>
       </c>
     </row>
     <row r="15" spans="2:13" x14ac:dyDescent="0.2">
@@ -15479,19 +15768,19 @@
         <v>451</v>
       </c>
       <c r="D15" s="18">
-        <v>5.3699999999999991E-2</v>
+        <v>6.8699999999999997E-2</v>
       </c>
       <c r="E15" s="18">
-        <v>6.9999999999999993E-3</v>
+        <v>1.6999999999999999E-3</v>
       </c>
       <c r="F15" s="18">
-        <v>2.7000000000000001E-3</v>
+        <v>3.13E-3</v>
       </c>
       <c r="G15" s="18">
-        <v>1.1299999999999999E-2</v>
+        <v>3.3500000000000001E-3</v>
       </c>
       <c r="H15" s="18">
-        <v>8.5999999999999983E-3</v>
+        <v>1.15E-2</v>
       </c>
       <c r="K15" s="2">
         <v>10</v>
@@ -15500,7 +15789,7 @@
         <v>443</v>
       </c>
       <c r="M15" s="7">
-        <v>4.13701E-2</v>
+        <v>3.5635E-2</v>
       </c>
     </row>
     <row r="16" spans="2:13" x14ac:dyDescent="0.2">
@@ -15511,19 +15800,19 @@
         <v>451</v>
       </c>
       <c r="D16" s="18">
-        <v>4.9924999999999997E-2</v>
+        <v>7.0699999999999999E-2</v>
       </c>
       <c r="E16" s="18">
-        <v>4.4250000000000001E-3</v>
+        <v>1E-3</v>
       </c>
       <c r="F16" s="18">
-        <v>2.6749999999999994E-3</v>
+        <v>3.0799999999999998E-3</v>
       </c>
       <c r="G16" s="18">
-        <v>9.025E-3</v>
+        <v>1.9499999999999999E-3</v>
       </c>
       <c r="H16" s="18">
-        <v>8.5000000000000006E-3</v>
+        <v>1.1350000000000001E-2</v>
       </c>
       <c r="K16" s="2">
         <v>11</v>
@@ -15532,7 +15821,7 @@
         <v>443</v>
       </c>
       <c r="M16" s="7">
-        <v>4.1052900000000003E-2</v>
+        <v>3.5299999999999998E-2</v>
       </c>
     </row>
     <row r="17" spans="2:18" x14ac:dyDescent="0.2">
@@ -15543,19 +15832,19 @@
         <v>451</v>
       </c>
       <c r="D17" s="18">
-        <v>4.7249999999999993E-2</v>
+        <v>7.2230000000000003E-2</v>
       </c>
       <c r="E17" s="18">
-        <v>2.5000000000000001E-3</v>
+        <v>6.7000000000000002E-4</v>
       </c>
       <c r="F17" s="18">
-        <v>2.7000000000000001E-3</v>
+        <v>3.0999999999999999E-3</v>
       </c>
       <c r="G17" s="18">
-        <v>7.3250000000000008E-3</v>
+        <v>1.4499999999999999E-3</v>
       </c>
       <c r="H17" s="18">
-        <v>8.6250000000000007E-3</v>
+        <v>1.15E-2</v>
       </c>
       <c r="K17" s="2">
         <v>12</v>
@@ -15564,7 +15853,7 @@
         <v>443</v>
       </c>
       <c r="M17" s="7">
-        <v>4.0749800000000003E-2</v>
+        <v>3.5012000000000001E-2</v>
       </c>
     </row>
     <row r="18" spans="2:18" x14ac:dyDescent="0.2">
@@ -15575,7 +15864,7 @@
         <v>451</v>
       </c>
       <c r="M18" s="7">
-        <v>3.7767000000000002E-2</v>
+        <v>3.2677999999999999E-2</v>
       </c>
     </row>
     <row r="19" spans="2:18" x14ac:dyDescent="0.2">
@@ -15586,7 +15875,7 @@
         <v>451</v>
       </c>
       <c r="M19" s="7">
-        <v>3.7051000000000001E-2</v>
+        <v>3.2236000000000001E-2</v>
       </c>
     </row>
     <row r="20" spans="2:18" x14ac:dyDescent="0.2">
@@ -15597,7 +15886,7 @@
         <v>451</v>
       </c>
       <c r="M20" s="7">
-        <v>3.7069999999999999E-2</v>
+        <v>3.2399999999999998E-2</v>
       </c>
     </row>
     <row r="21" spans="2:18" x14ac:dyDescent="0.2">
@@ -15615,7 +15904,7 @@
         <v>451</v>
       </c>
       <c r="M21" s="7">
-        <v>3.7380499999999997E-2</v>
+        <v>3.2797E-2</v>
       </c>
     </row>
     <row r="22" spans="2:18" x14ac:dyDescent="0.2">
@@ -15776,10 +16065,10 @@
         <v>456</v>
       </c>
       <c r="E32">
-        <v>1.1513</v>
+        <v>1.1603000000000001</v>
       </c>
       <c r="F32">
-        <v>1.1514</v>
+        <v>1.1603000000000001</v>
       </c>
       <c r="H32" t="s">
         <v>457</v>
@@ -15823,10 +16112,10 @@
         <v>456</v>
       </c>
       <c r="E33">
-        <v>0.6</v>
+        <v>0.63800000000000001</v>
       </c>
       <c r="F33">
-        <v>0.63</v>
+        <v>0.66300000000000003</v>
       </c>
       <c r="H33" t="s">
         <v>460</v>
@@ -15870,7 +16159,7 @@
         <v>442</v>
       </c>
       <c r="E34">
-        <v>4.63</v>
+        <v>4.49</v>
       </c>
       <c r="F34">
         <v>4.66</v>
@@ -15917,7 +16206,7 @@
         <v>442</v>
       </c>
       <c r="E35">
-        <v>9.0500000000000007</v>
+        <v>8.73</v>
       </c>
       <c r="F35">
         <v>9.2100000000000009</v>
@@ -15964,7 +16253,7 @@
         <v>442</v>
       </c>
       <c r="E36">
-        <v>13.34</v>
+        <v>12.82</v>
       </c>
       <c r="F36">
         <v>13.43</v>
@@ -16011,7 +16300,7 @@
         <v>443</v>
       </c>
       <c r="E37">
-        <v>21.21</v>
+        <v>20.94</v>
       </c>
       <c r="F37">
         <v>21.37</v>
@@ -16058,7 +16347,7 @@
         <v>443</v>
       </c>
       <c r="E38">
-        <v>38.200000000000003</v>
+        <v>39.090000000000003</v>
       </c>
       <c r="F38">
         <v>41.73</v>
@@ -16105,7 +16394,7 @@
         <v>443</v>
       </c>
       <c r="E39">
-        <v>55.74</v>
+        <v>54.9</v>
       </c>
       <c r="F39">
         <v>59.04</v>
@@ -16152,7 +16441,7 @@
         <v>443</v>
       </c>
       <c r="E40">
-        <v>70.040000000000006</v>
+        <v>71.81</v>
       </c>
       <c r="F40">
         <v>76.459999999999994</v>
@@ -16199,7 +16488,7 @@
         <v>443</v>
       </c>
       <c r="E41">
-        <v>88.07</v>
+        <v>89.55</v>
       </c>
       <c r="F41">
         <v>94.53</v>
@@ -16246,7 +16535,7 @@
         <v>443</v>
       </c>
       <c r="E42">
-        <v>104.27</v>
+        <v>104.14</v>
       </c>
       <c r="F42">
         <v>109.53</v>
@@ -16387,7 +16676,7 @@
         <v>443</v>
       </c>
       <c r="E45">
-        <v>146.47</v>
+        <v>148.69999999999999</v>
       </c>
       <c r="F45">
         <v>157.03</v>
@@ -16528,7 +16817,7 @@
         <v>443</v>
       </c>
       <c r="E48">
-        <v>186.62</v>
+        <v>187.37</v>
       </c>
       <c r="F48">
         <v>196.18</v>
@@ -16575,7 +16864,7 @@
         <v>443</v>
       </c>
       <c r="E49">
-        <v>228.3</v>
+        <v>222.35</v>
       </c>
       <c r="F49">
         <v>229.7</v>
@@ -16669,7 +16958,7 @@
         <v>451</v>
       </c>
       <c r="E51">
-        <v>324.75</v>
+        <v>319.45999999999998</v>
       </c>
       <c r="F51">
         <v>328.25</v>
@@ -16716,7 +17005,7 @@
         <v>451</v>
       </c>
       <c r="E52">
-        <v>442.41</v>
+        <v>441</v>
       </c>
       <c r="F52">
         <v>453.36</v>
@@ -16763,7 +17052,7 @@
         <v>451</v>
       </c>
       <c r="E53">
-        <v>560.1</v>
+        <v>553.24</v>
       </c>
       <c r="F53">
         <v>574.82000000000005</v>
@@ -16810,7 +17099,7 @@
         <v>451</v>
       </c>
       <c r="E54">
-        <v>682.38</v>
+        <v>808.15</v>
       </c>
       <c r="F54">
         <v>700.95</v>
@@ -16848,6 +17137,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
